--- a/snap_specialist.xlsx
+++ b/snap_specialist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maroufi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szeimar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -84,44 +84,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">۱) نمایش تمام رستوران‌ها با آیکون تخفیف از جمله رستوران آواچی با تخفیف ۵ درصد و پیک ۲۱.۵ هزار تومان
-۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۵ بر روی غذاهای تخفیف‌دار
-۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید"
-۴) مشاهده سبد خرید شامل :
-"پیشنهادات افزودنی" در صورت وجود
-و آیکون "ادامه" با جمع کل ۲۰۳ هزار تومان 
-فاکتور کامل : قیمت غذای ۱۷۵ تومان
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">سود از خرید ۸.۷ تومان </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-و هزینه ارسال ۲۱ تومان
-و مالیات ۱۵ هزار تومان  
-مبلغ قابل پرداخت ۱۷۵-۸+۲۱+۱۵ = ۲۰۳
-۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
-شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
-زمان ارسال 
-روش پرداخت پرداخت 
-جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۲۰۳ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۲۰۳ هزار تومان</t>
-    </r>
-  </si>
-  <si>
     <t>اعمال تخفیف فود پارتی بر 
 صورت حساب و سبد خرید</t>
   </si>
@@ -140,40 +102,6 @@
   <si>
     <t>غذا مورد نظر :
 انتخاب غذای چیکن پنینی با قیمت ۱۶۶ هزار تومان  و تخفیف ۲۰ درصدی (اصل قیمت ۲۰۸ هزار تومان) و ارسال رایگان</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
-۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتیدر یک صفحه 
-۳) در صورت وجود گزینه های پیشنهادی صفحه ای برای انتخاب آنها نمایان میگردد . در صورت عدم وجود, غذای انتخابی خود به خود در سبد قرار میگیرد و گرینه ۱  مقابل این غذا نمایان می‌شود.
-۴)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
-مشاهده فاکتور :
-با قیمت ۲۰۸ هزار تومان و ارسال رایگان, قیمت مالیات ۱۴.۹هزار تومان و احتساب ۴۱ هزار تومان به عنوان ۲۰ درصد تخفیف در قسمت </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00FF00"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>سود شما از تخفیف</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> و در نهایت ۱۶۶.۱ تومان قیمت نهایی غذا.
- مبلغ پرداختی ۱۸۱=۲۰۸-۴۱.۹+۱۴.۹ هزار تومان
-۵)مشاهده صفحه تایید نهایی و پرداخت آنلاین 
-شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
-زمان ارسال 
-روش پرداخت 
-جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۱۸۱ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۱۸۱ هزار تومان</t>
-    </r>
   </si>
   <si>
     <t>۱) کلیک بر فیلتر "دارای تخفیف"
@@ -221,26 +149,6 @@
 ۴) کلیک "تکمیل خرید" 
 ۵) کلیک بر "ادامه" با نمایش جمع کل ۲۷۳ هزار تومان
 ۶) کلیک بر "پرداخت انلاین" ۲۷۳ هزار تومان</t>
-  </si>
-  <si>
-    <t>۱) نمایش تمام رستوران‌ها با آیکون تخفیف و دارای کوپن از جمله رستوران پیتزا سیب ۳۶۰ با تخفیف ۱۰ درصد و پیک رایگان و دارای دو کوپن
-۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۱۰ درصد بر روی غذاهای تخفیف‌دار و مشاهده کوپن‌های موجود از جملهپن خرید نوشابه قوطی برای خرید بالای ۴۵۰ تومان
-۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید" و همچنین مشاهده‌ی گزینه انتخاب شده در زیر کوپن به دلیل خرید بالای ۴۵۰ هزار تومان
-۴) مشاهده سبد خرید شامل :
-"پیشنهادات افزودنی" در صورت وجود
-نوشابه قوطی رایگان
-و آیکون "ادامه" با جمع کل ۵۲۵ هزار تومان 
-فاکتور کامل : قیمت غذای ۵۳۶ هزار تومان
-سود از خرید ۸۱۰ درصد ۵۳ هزار تومان 
-و هزینه ارسال رایگان
-و مالیات ۴۳ هزار تومان  
-مبلغ قابل پرداخت ۵۳۶-۵۳+۴۳ = ۵۲۵
-۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
-شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
-زمان ارسال 
-روش پرداخت پرداخت 
-جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۵۲۵ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۵۲۵ هزار تومان</t>
   </si>
   <si>
     <t>در این test case  نیز مشکل احتساب اشتباه قیمت پیک باز هم تکرار شد و خود به خود اصلاح گردید اما در زمان رخدادن اشتباه امکان پرداخت توسط مشتری وجود داشت.</t>
@@ -294,32 +202,46 @@
 ۷) درگاه بانکی برای پرداخت مبلغ ۲۴۶ هزار تومان</t>
   </si>
   <si>
-    <t>۱) غذای مورد نظر :
-مگا زینگراتور با قیمت ۲۴۲هزارتومان با احتساب ۲۰ درصد تخفیف از قیمت اصلی ۳۰۲ هزار تومان و پیک ۱۸ هزار تومان
-۲) انتخاب گزینه پیشنهادی نان فرانسوی رایگان و یک عدد پتی مرغ به قیمت ۸۱ هزار تومان</t>
-  </si>
-  <si>
     <t>۱) کلیک بر آیکون "تخفیف روز"
 ۲)کلیک بر آیکون "مشاهده همه"
 ۳) کلیک بر روی غذای خاص یک رستوران با تخفیف فودپارتی
-۴) کلیک بر علامت بعلاوه
-۵) انتخاب گزینه‌های پیشنهادی 
-۶) انتخاب گزینه "افزودن"
-۷) کلیک بر "تکمیل خرید "
-۸) کلیک بر "ادامه "
-۹) کلیک بر "پرداخت انلاین"</t>
-  </si>
-  <si>
-    <t>۱۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
+4) کلیک بر "تکمیل خرید "
+5) انتخاب گزینه های افزودنی 
+6) کلیک بر "ادامه "
+7) کلیک بر "پرداخت انلاین"</t>
+  </si>
+  <si>
+    <t>۱) غذای مورد نظر :
+پیتزا پلاک 226 هزار تومان با احتساب تخفیف 20 درصدی بر قیمت اصلی 283 هزار تومان و پیک 14 هزار تومان
+۲) انتخاب گزینه افزودنی نان سیر با قیمت 127 هزار تومان</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
 ۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتیدر یک صفحه 
-۳) مشاهده غذای انتخاب شده با قیمت ۲۴۲ هزار تومان و آیکون بعلاوه جهت انتخاب این غذا
-۴)نمایش صفحه "انتخاب افزودنی‌ها " شامل :
-نان انتخابی و گوشت انتخابی و سرویس اضافی
-۵) افزوده شدن قیمت پتی مرغ به قیمت ۲۴۲ هزار تومان غذای اصلی که در کنار آیکون "افزودن "قابل مشاهده است.
-۶) مشاهده عدد ۱ در مقابل غذا اصلی و ظاهر شدن کلید "تکمیل خرید"
-۷)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
+۳) در صورت وجود گزینه های پیشنهادی صفحه ای برای انتخاب آنها نمایان میگردد . در صورت عدم وجود, غذای انتخابی خود به خود در سبد قرار میگیرد و گرینه ۱  مقابل این غذا نمایان می‌شود.
+۴)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
 مشاهده فاکتور :
-با قیمت ۲۰۸ هزار تومان و ارسال رایگان, قیمت مالیات ۱۴.۹هزار تومان و احتساب ۴۱ هزار تومان به عنوان ۲۰ درصد تخفیف در قسمت سود شما از تخفیف و در نهایت ۱۶۶.۱ تومان قیمت نهایی غذا.
+با قیمت ۲۰۸ هزار تومان و ارسال رایگان, قیمت مالیات ۱۴.۹هزار تومان و احتساب ۴۱ هزار تومان به عنوان ۲۰ درصد تخفیف در قسمت </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>سود شما از تخفیف</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> و در نهایت ۱۶۶.۱ تومان قیمت نهایی غذا.
  مبلغ پرداختی ۱۸۱=۲۰۸-۴۱.۹+۱۴.۹ هزار تومان
 ۵)مشاهده صفحه تایید نهایی و پرداخت آنلاین 
 شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
@@ -327,6 +249,144 @@
 روش پرداخت 
 جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۱۸۱ هزار تومان
 ۶) درگاه بانکی برای پرداخت مبلغ ۱۸۱ هزار تومان</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">۱) نمایش تمام رستوران‌ها با آیکون تخفیف از جمله رستوران آواچی با تخفیف ۵ درصد و پیک ۲۱.۵ هزار تومان
+۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۵ بر روی غذاهای تخفیف‌دار
+۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید"
+۴) مشاهده سبد خرید شامل :
+"پیشنهادات افزودنی" در صورت وجود
+و آیکون "ادامه" با جمع کل ۲۰۳ هزار تومان 
+فاکتور کامل : قیمت غذای ۱۷۵ تومان
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00FF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">سود از خرید ۸.۷ تومان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+و هزینه ارسال ۲۱ تومان
+و مالیات ۱۵ هزار تومان  
+مبلغ قابل پرداخت ۱۷۵-۸+۲۱+۱۵ = ۲۰۳
+۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
+شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+زمان ارسال 
+روش پرداخت پرداخت 
+جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۲۰۳ هزار تومان
+۶) درگاه بانکی برای پرداخت مبلغ ۲۰۳ هزار تومان</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">۱) نمایش تمام رستوران‌ها با آیکون تخفیف و دارای کوپن از جمله رستوران پیتزا سیب ۳۶۰ با تخفیف ۱۰ درصد و پیک رایگان و دارای دو کوپن
+۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۱۰ درصد بر روی غذاهای تخفیف‌دار و مشاهده کوپن‌های موجود از جملهپن خرید نوشابه قوطی برای خرید بالای ۴۵۰ تومان
+۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید" و همچنین مشاهده‌ی گزینه انتخاب شده در زیر کوپن به دلیل خرید بالای ۴۵۰ هزار تومان
+۴) مشاهده سبد خرید شامل :
+"پیشنهادات افزودنی" در صورت وجود
+نوشابه قوطی رایگان
+و آیکون "ادامه" با جمع کل ۵۲۵ هزار تومان 
+فاکتور کامل : قیمت غذای ۵۳۶ هزار تومان
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00CC00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">سود 10 درصدی از خرید :۵۳ هزار تومان </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+و هزینه ارسال رایگان
+و مالیات ۴۳ هزار تومان  
+مبلغ قابل پرداخت ۵۳۶-۵۳+۴۳ = ۵۲۵
+۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
+شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+زمان ارسال 
+روش پرداخت پرداخت 
+جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۵۲۵ هزار تومان
+۶) درگاه بانکی برای پرداخت مبلغ ۵۲۵ هزار تومان</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">۱۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
+۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتی در یک صفحه 
+3)به دلیل نداشتن گزینه پیشنهادی مشاهده صفحه اصلی غذا مورد نظر با نمایش عدد 1 کنار این غذا و آیکون "تکمیل خرید"
+4)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
+,مشاهده فاکتور 
+و کوپن 5 درصدی سفارش اول 
+و تعداد انتخابی غذای مورد نظر در اینجا پیتزا پلاک
+5)مشاهده پیتزا پلاک و نان سیر بعنوان غذاهای انتخابی و
+تغییر فاکتور کامل به شرح زیر : 
+قیمت تمام سفارشات 410 هزار تومان 
+410=283+127
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00CC00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">سود شما از تخفیفی:
+20 در صد بر 283 هزار تومان و تخفیف 5 درصدی بر کل اقلام , 410 هزار تومان در نتیجه:
+56+17=74
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>مبلغ پیک 14 هزار تومان</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+در نهایت مبلغ پرداختی:
+ مبلغ پرداختی 410-74+14=349 هزار تومان
+6)مشاهده صفحه "تایید نهایی و پرداخت آنلاین" 
+شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+,زمان ارسال 
+,روش پرداخت 
+,جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت 349 هزار تومان
+7) درگاه بانکی برای پرداخت مبلغ 349 هزار تومان</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -336,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,27 +413,43 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF002060"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF002060"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF00FF00"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00CC00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -747,50 +823,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
@@ -828,24 +862,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -857,10 +873,103 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -871,6 +980,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC00"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -888,7 +998,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Yellow">
+    <a:clrScheme name="Paper">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,34 +1006,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="39302A"/>
+        <a:srgbClr val="444D26"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E5DEDB"/>
+        <a:srgbClr val="FEFAC9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="FFCA08"/>
+        <a:srgbClr val="A5B592"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="F8931D"/>
+        <a:srgbClr val="F3A447"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="CE8D3E"/>
+        <a:srgbClr val="E7BC29"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="EC7016"/>
+        <a:srgbClr val="D092A7"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="E64823"/>
+        <a:srgbClr val="9C85C0"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="9C6A6A"/>
+        <a:srgbClr val="809EC2"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="2998E3"/>
+        <a:srgbClr val="8E58B6"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7F723D"/>
+        <a:srgbClr val="7F6F6F"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -1150,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,250 +1278,252 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="357" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="28" t="s">
+      <c r="D5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" ht="306" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="40">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="33" t="s">
+      <c r="D6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="37" t="s">
-        <v>23</v>
+      <c r="H6" s="46" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="357" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:8" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>6</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="31" t="s">
+      <c r="D9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="1:8" ht="357" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
